--- a/natmiOut/OldD2/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>F2rl2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H2">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I2">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J2">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.12951101996956</v>
+        <v>2.159947</v>
       </c>
       <c r="N2">
-        <v>2.12951101996956</v>
+        <v>6.479841</v>
       </c>
       <c r="O2">
-        <v>0.5281864461823549</v>
+        <v>0.4871306032952338</v>
       </c>
       <c r="P2">
-        <v>0.5281864461823549</v>
+        <v>0.4963301307509644</v>
       </c>
       <c r="Q2">
-        <v>4.057538048887193</v>
+        <v>4.1345413881155</v>
       </c>
       <c r="R2">
-        <v>4.057538048887193</v>
+        <v>24.807248328693</v>
       </c>
       <c r="S2">
-        <v>0.3181619628792712</v>
+        <v>0.2584173860819789</v>
       </c>
       <c r="T2">
-        <v>0.3181619628792712</v>
+        <v>0.2218110303411502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H3">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I3">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J3">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.90223011114298</v>
+        <v>2.027518333333333</v>
       </c>
       <c r="N3">
-        <v>1.90223011114298</v>
+        <v>6.082554999999999</v>
       </c>
       <c r="O3">
-        <v>0.4718135538176452</v>
+        <v>0.4572641036603274</v>
       </c>
       <c r="P3">
-        <v>0.4718135538176452</v>
+        <v>0.4658995982231558</v>
       </c>
       <c r="Q3">
-        <v>3.624480447070841</v>
+        <v>3.881048222169166</v>
       </c>
       <c r="R3">
-        <v>3.624480447070841</v>
+        <v>23.286289333015</v>
       </c>
       <c r="S3">
-        <v>0.2842048058609981</v>
+        <v>0.2425735390420646</v>
       </c>
       <c r="T3">
-        <v>0.2842048058609981</v>
+        <v>0.2082115582244556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.41258961714425</v>
+        <v>1.9141865</v>
       </c>
       <c r="H4">
-        <v>0.41258961714425</v>
+        <v>3.828373</v>
       </c>
       <c r="I4">
-        <v>0.1304357351567513</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J4">
-        <v>0.1304357351567513</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>2.12951101996956</v>
+        <v>0.246555</v>
       </c>
       <c r="N4">
-        <v>2.12951101996956</v>
+        <v>0.49311</v>
       </c>
       <c r="O4">
-        <v>0.5281864461823549</v>
+        <v>0.05560529304443874</v>
       </c>
       <c r="P4">
-        <v>0.5281864461823549</v>
+        <v>0.03777027102587981</v>
       </c>
       <c r="Q4">
-        <v>0.8786141364337022</v>
+        <v>0.4719522525075</v>
       </c>
       <c r="R4">
-        <v>0.8786141364337022</v>
+        <v>1.88780901003</v>
       </c>
       <c r="S4">
-        <v>0.06889438740762731</v>
+        <v>0.02949799167546347</v>
       </c>
       <c r="T4">
-        <v>0.06889438740762731</v>
+        <v>0.01687961744300895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,309 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H5">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I5">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J5">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.90223011114298</v>
+        <v>2.159947</v>
       </c>
       <c r="N5">
-        <v>1.90223011114298</v>
+        <v>6.479841</v>
       </c>
       <c r="O5">
-        <v>0.4718135538176452</v>
+        <v>0.4871306032952338</v>
       </c>
       <c r="P5">
-        <v>0.4718135538176452</v>
+        <v>0.4963301307509644</v>
       </c>
       <c r="Q5">
-        <v>0.7848403932767463</v>
+        <v>1.133423548462</v>
       </c>
       <c r="R5">
-        <v>0.7848403932767463</v>
+        <v>10.200811936158</v>
       </c>
       <c r="S5">
-        <v>0.06154134774912399</v>
+        <v>0.07084131545017903</v>
       </c>
       <c r="T5">
-        <v>0.06154134774912399</v>
+        <v>0.09120933430002552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H6">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I6">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J6">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.12951101996956</v>
+        <v>2.027518333333333</v>
       </c>
       <c r="N6">
-        <v>2.12951101996956</v>
+        <v>6.082554999999999</v>
       </c>
       <c r="O6">
-        <v>0.5281864461823549</v>
+        <v>0.4572641036603274</v>
       </c>
       <c r="P6">
-        <v>0.5281864461823549</v>
+        <v>0.4658995982231558</v>
       </c>
       <c r="Q6">
-        <v>1.067430168221348</v>
+        <v>1.063932135343333</v>
       </c>
       <c r="R6">
-        <v>1.067430168221348</v>
+        <v>9.575389218089999</v>
       </c>
       <c r="S6">
-        <v>0.08369993662807343</v>
+        <v>0.06649795843726158</v>
       </c>
       <c r="T6">
-        <v>0.08369993662807343</v>
+        <v>0.08561719221093413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H7">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I7">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J7">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>1.90223011114298</v>
+        <v>0.246555</v>
       </c>
       <c r="N7">
-        <v>1.90223011114298</v>
+        <v>0.49311</v>
       </c>
       <c r="O7">
-        <v>0.4718135538176452</v>
+        <v>0.05560529304443874</v>
       </c>
       <c r="P7">
-        <v>0.4718135538176452</v>
+        <v>0.03777027102587981</v>
       </c>
       <c r="Q7">
-        <v>0.9535042497981953</v>
+        <v>0.12937875003</v>
       </c>
       <c r="R7">
-        <v>0.9535042497981953</v>
+        <v>0.77627250018</v>
       </c>
       <c r="S7">
-        <v>0.07476671323210922</v>
+        <v>0.008086439403753372</v>
       </c>
       <c r="T7">
-        <v>0.07476671323210922</v>
+        <v>0.006940947291250755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.343933494675933</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H8">
-        <v>0.343933494675933</v>
+        <v>0.370337</v>
       </c>
       <c r="I8">
-        <v>0.108730846242797</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J8">
-        <v>0.108730846242797</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.12951101996956</v>
+        <v>2.159947</v>
       </c>
       <c r="N8">
-        <v>2.12951101996956</v>
+        <v>6.479841</v>
       </c>
       <c r="O8">
-        <v>0.5281864461823549</v>
+        <v>0.4871306032952338</v>
       </c>
       <c r="P8">
-        <v>0.5281864461823549</v>
+        <v>0.4963301307509644</v>
       </c>
       <c r="Q8">
-        <v>0.7324101670490414</v>
+        <v>0.2666360973796667</v>
       </c>
       <c r="R8">
-        <v>0.7324101670490414</v>
+        <v>2.399724876417</v>
       </c>
       <c r="S8">
-        <v>0.05743015926738299</v>
+        <v>0.01666530743119716</v>
       </c>
       <c r="T8">
-        <v>0.05743015926738299</v>
+        <v>0.02145685165563819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.370337</v>
+      </c>
+      <c r="I9">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J9">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.027518333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.082554999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.4572641036603274</v>
+      </c>
+      <c r="P9">
+        <v>0.4658995982231558</v>
+      </c>
+      <c r="Q9">
+        <v>0.2502883523372222</v>
+      </c>
+      <c r="R9">
+        <v>2.252595171035</v>
+      </c>
+      <c r="S9">
+        <v>0.01564353956249318</v>
+      </c>
+      <c r="T9">
+        <v>0.02014130907259304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.370337</v>
+      </c>
+      <c r="I10">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J10">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.246555</v>
+      </c>
+      <c r="N10">
+        <v>0.49311</v>
+      </c>
+      <c r="O10">
+        <v>0.05560529304443874</v>
+      </c>
+      <c r="P10">
+        <v>0.03777027102587981</v>
+      </c>
+      <c r="Q10">
+        <v>0.030436146345</v>
+      </c>
+      <c r="R10">
+        <v>0.18261687807</v>
+      </c>
+      <c r="S10">
+        <v>0.00190232208183757</v>
+      </c>
+      <c r="T10">
+        <v>0.001632846873852575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.461005</v>
+      </c>
+      <c r="I11">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J11">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.159947</v>
+      </c>
+      <c r="N11">
+        <v>6.479841</v>
+      </c>
+      <c r="O11">
+        <v>0.4871306032952338</v>
+      </c>
+      <c r="P11">
+        <v>0.4963301307509644</v>
+      </c>
+      <c r="Q11">
+        <v>0.3319154555783334</v>
+      </c>
+      <c r="R11">
+        <v>2.987239100205</v>
+      </c>
+      <c r="S11">
+        <v>0.02074540230200883</v>
+      </c>
+      <c r="T11">
+        <v>0.02671003949782896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.461005</v>
+      </c>
+      <c r="I12">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J12">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.027518333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.082554999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.4572641036603274</v>
+      </c>
+      <c r="P12">
+        <v>0.4658995982231558</v>
+      </c>
+      <c r="Q12">
+        <v>0.311565363086111</v>
+      </c>
+      <c r="R12">
+        <v>2.804088267775</v>
+      </c>
+      <c r="S12">
+        <v>0.01947347944171705</v>
+      </c>
+      <c r="T12">
+        <v>0.02507241833522103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.461005</v>
+      </c>
+      <c r="I13">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J13">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.246555</v>
+      </c>
+      <c r="N13">
+        <v>0.49311</v>
+      </c>
+      <c r="O13">
+        <v>0.05560529304443874</v>
+      </c>
+      <c r="P13">
+        <v>0.03777027102587981</v>
+      </c>
+      <c r="Q13">
+        <v>0.037887695925</v>
+      </c>
+      <c r="R13">
+        <v>0.22732617555</v>
+      </c>
+      <c r="S13">
+        <v>0.00236805933875775</v>
+      </c>
+      <c r="T13">
+        <v>0.002032609685449757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H14">
+        <v>1.643757</v>
+      </c>
+      <c r="I14">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J14">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.159947</v>
+      </c>
+      <c r="N14">
+        <v>6.479841</v>
+      </c>
+      <c r="O14">
+        <v>0.4871306032952338</v>
+      </c>
+      <c r="P14">
+        <v>0.4963301307509644</v>
+      </c>
+      <c r="Q14">
+        <v>1.183476000293</v>
+      </c>
+      <c r="R14">
+        <v>10.651284002637</v>
+      </c>
+      <c r="S14">
+        <v>0.07396969718710887</v>
+      </c>
+      <c r="T14">
+        <v>0.09523717615824738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H15">
+        <v>1.643757</v>
+      </c>
+      <c r="I15">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J15">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.027518333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.082554999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.4572641036603274</v>
+      </c>
+      <c r="P15">
+        <v>0.4658995982231558</v>
+      </c>
+      <c r="Q15">
+        <v>1.110915817681666</v>
+      </c>
+      <c r="R15">
+        <v>9.998242359134998</v>
+      </c>
+      <c r="S15">
+        <v>0.06943453573535753</v>
+      </c>
+      <c r="T15">
+        <v>0.08939808276580063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="H9">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="I9">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="J9">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.90223011114298</v>
-      </c>
-      <c r="N9">
-        <v>1.90223011114298</v>
-      </c>
-      <c r="O9">
-        <v>0.4718135538176452</v>
-      </c>
-      <c r="P9">
-        <v>0.4718135538176452</v>
-      </c>
-      <c r="Q9">
-        <v>0.6542406498031935</v>
-      </c>
-      <c r="R9">
-        <v>0.6542406498031935</v>
-      </c>
-      <c r="S9">
-        <v>0.051300686975414</v>
-      </c>
-      <c r="T9">
-        <v>0.051300686975414</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.643757</v>
+      </c>
+      <c r="I16">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J16">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.246555</v>
+      </c>
+      <c r="N16">
+        <v>0.49311</v>
+      </c>
+      <c r="O16">
+        <v>0.05560529304443874</v>
+      </c>
+      <c r="P16">
+        <v>0.03777027102587981</v>
+      </c>
+      <c r="Q16">
+        <v>0.135092169045</v>
+      </c>
+      <c r="R16">
+        <v>0.8105530142699999</v>
+      </c>
+      <c r="S16">
+        <v>0.008443539906288267</v>
+      </c>
+      <c r="T16">
+        <v>0.007247462389184143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3443785</v>
+      </c>
+      <c r="H17">
+        <v>0.688757</v>
+      </c>
+      <c r="I17">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J17">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.159947</v>
+      </c>
+      <c r="N17">
+        <v>6.479841</v>
+      </c>
+      <c r="O17">
+        <v>0.4871306032952338</v>
+      </c>
+      <c r="P17">
+        <v>0.4963301307509644</v>
+      </c>
+      <c r="Q17">
+        <v>0.7438393079395</v>
+      </c>
+      <c r="R17">
+        <v>4.463035847637</v>
+      </c>
+      <c r="S17">
+        <v>0.04649149484276102</v>
+      </c>
+      <c r="T17">
+        <v>0.03990569879807416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3443785</v>
+      </c>
+      <c r="H18">
+        <v>0.688757</v>
+      </c>
+      <c r="I18">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J18">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.027518333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.082554999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.4572641036603274</v>
+      </c>
+      <c r="P18">
+        <v>0.4658995982231558</v>
+      </c>
+      <c r="Q18">
+        <v>0.6982337223558333</v>
+      </c>
+      <c r="R18">
+        <v>4.189402334134999</v>
+      </c>
+      <c r="S18">
+        <v>0.04364105144143354</v>
+      </c>
+      <c r="T18">
+        <v>0.03745903761415133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3443785</v>
+      </c>
+      <c r="H19">
+        <v>0.688757</v>
+      </c>
+      <c r="I19">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J19">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.246555</v>
+      </c>
+      <c r="N19">
+        <v>0.49311</v>
+      </c>
+      <c r="O19">
+        <v>0.05560529304443874</v>
+      </c>
+      <c r="P19">
+        <v>0.03777027102587981</v>
+      </c>
+      <c r="Q19">
+        <v>0.08490824106749999</v>
+      </c>
+      <c r="R19">
+        <v>0.3396329642699999</v>
+      </c>
+      <c r="S19">
+        <v>0.00530694063833832</v>
+      </c>
+      <c r="T19">
+        <v>0.003036787343133628</v>
       </c>
     </row>
   </sheetData>
